--- a/hecCalc/2023/documentum/[BEPH1402]AR_BOQ_Working_View-2시연 비교.xlsx
+++ b/hecCalc/2023/documentum/[BEPH1402]AR_BOQ_Working_View-2시연 비교.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\hecCalc\2023\documentum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A83F82-3ED0-457E-A178-EB68A77CF524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9863A70-73F6-494B-80B0-436E87CEDE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(AR) BOQ View (Working)" sheetId="1" r:id="rId1"/>
@@ -2107,6 +2107,24 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2119,12 +2137,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2132,18 +2144,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2460,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2749,7 +2749,7 @@
         <v>376.18</v>
       </c>
       <c r="J12" s="13">
-        <v>305.12</v>
+        <v>354.79300000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -2921,7 +2921,7 @@
         <v>305.91000000000003</v>
       </c>
       <c r="J18" s="13">
-        <v>277.98599999999999</v>
+        <v>332.05700000000002</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2953,7 +2953,7 @@
         <v>70.27</v>
       </c>
       <c r="J19" s="13">
-        <v>27.135000000000002</v>
+        <v>22.736000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -5697,9 +5697,9 @@
       <c r="AG2" s="17"/>
     </row>
     <row r="3" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -5735,49 +5735,49 @@
       <c r="A4" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="62" t="s">
         <v>259</v>
       </c>
       <c r="C4" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="62" t="s">
         <v>263</v>
       </c>
       <c r="G4" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
       <c r="K4" s="50" t="s">
         <v>266</v>
       </c>
       <c r="L4" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="M4" s="66" t="s">
+      <c r="M4" s="56" t="s">
         <v>268</v>
       </c>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="67"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="57"/>
       <c r="Y4" s="51" t="s">
         <v>269</v>
       </c>
@@ -5802,38 +5802,38 @@
     </row>
     <row r="5" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
-      <c r="B5" s="57"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="51"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="57" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="59" t="s">
         <v>277</v>
       </c>
       <c r="K5" s="51"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="66" t="s">
+      <c r="M5" s="56" t="s">
         <v>278</v>
       </c>
-      <c r="N5" s="67"/>
+      <c r="N5" s="57"/>
       <c r="O5" s="52" t="s">
         <v>279</v>
       </c>
       <c r="P5" s="52"/>
-      <c r="Q5" s="60" t="s">
+      <c r="Q5" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="R5" s="60" t="s">
+      <c r="R5" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="S5" s="60" t="s">
+      <c r="S5" s="59" t="s">
         <v>282</v>
       </c>
       <c r="T5" s="51" t="s">
@@ -5868,15 +5868,15 @@
     </row>
     <row r="6" spans="1:33" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="53"/>
-      <c r="B6" s="57"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="51"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
       <c r="K6" s="51"/>
       <c r="L6" s="53"/>
       <c r="M6" s="22" t="s">
@@ -5891,16 +5891,16 @@
       <c r="P6" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
       <c r="T6" s="61"/>
       <c r="U6" s="61"/>
       <c r="V6" s="61"/>
       <c r="W6" s="61"/>
       <c r="X6" s="61"/>
       <c r="Y6" s="61"/>
-      <c r="Z6" s="63"/>
+      <c r="Z6" s="67"/>
       <c r="AA6" s="61"/>
       <c r="AB6" s="61"/>
       <c r="AC6" s="51"/>
@@ -6082,7 +6082,7 @@
       <c r="O10" s="49"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="64" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="49"/>
@@ -6211,6 +6211,9 @@
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="AE4:AE6"/>
     <mergeCell ref="AF4:AF6"/>
+    <mergeCell ref="W8:AC8"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y4:Y6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B8:L8"/>
@@ -6220,9 +6223,6 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="W8:AC8"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y4:Y6"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B11:E15"/>
